--- a/Formulas-importantes-Excel/Indice+Corresp+três+Condições.xlsx
+++ b/Formulas-importantes-Excel/Indice+Corresp+três+Condições.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Indice Corresp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliana\OneDrive\Desktop\Estudos\Excel Avançado\Formulas-importantes-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD4ED1-C45C-46FD-9E4D-3162B8F572BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F45B5A-A18D-4FFF-9472-94DF033739E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
     <sheet name="Aluno" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
   <si>
     <t>Cliente</t>
   </si>
@@ -104,6 +115,9 @@
   </si>
   <si>
     <t>Fórmula em Inglês</t>
+  </si>
+  <si>
+    <t>=ÍNDICE($I$7:$L$21;CORRESP(B7&amp;C7&amp;D7;$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21;0);2)</t>
   </si>
 </sst>
 </file>
@@ -204,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,7 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,26 +562,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A096B3F-3F20-4D87-A3FB-7004DAEFE5F0}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
@@ -576,296 +589,296 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I3" s="12" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="array" ref="E7">INDEX($I$7:$L$21,MATCH(B7&amp;C7&amp;D7,$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21,0),2)</f>
         <v>89.99</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
         <v>89.99</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="array" ref="E8">INDEX($I$7:$L$21,MATCH(B8&amp;C8&amp;D8,$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21,0),2)</f>
         <v>148.56</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
         <v>69.989999999999995</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="array" ref="E9">INDEX($I$7:$L$21,MATCH(B9&amp;C9&amp;D9,$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21,0),2)</f>
         <v>46.9</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>153.4</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="array" ref="E10">INDEX($I$7:$L$21,MATCH(B10&amp;C10&amp;D10,$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21,0),2)</f>
         <v>69.989999999999995</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>148.56</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="10">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
         <v>146.13999999999999</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="9" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>224.14</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="9" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>150.5</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="10">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
         <v>248.73</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="10">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
         <v>116.52</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="9" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>59.9</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="9" t="s">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>46.9</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="10">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
         <v>41.9</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="10">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="9" t="s">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>55.9</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>89.9</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -879,26 +892,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
@@ -906,284 +919,298 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I3" s="12" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="I7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="E7" s="6">
+        <f t="array" ref="E7:E10">INDEX($I$7:$L$21,MATCH(B7&amp;C7&amp;D7,$I$7:$I$21&amp;$K$7:$K$21&amp;$L$7:$L$21,0),2)</f>
         <v>89.99</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>89.99</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="I8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="E8" s="6">
+        <v>89.99</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
         <v>69.989999999999995</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="I9" s="9" t="s">
+      <c r="E9" s="6">
+        <v>89.99</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>153.4</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="I10" s="9" t="s">
+      <c r="E10" s="6">
+        <v>89.99</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>148.56</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="10">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
         <v>146.13999999999999</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I12" s="9" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>224.14</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="9" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>150.5</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="10">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
         <v>248.73</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="10">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
         <v>116.52</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="9" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>59.9</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="9" t="s">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>46.9</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="10">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
         <v>41.9</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="10">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="9" t="s">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>55.9</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>89.9</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
